--- a/bin/Data Files/TestDataFile.xlsx
+++ b/bin/Data Files/TestDataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F1551-347A-4EFA-93D9-9BFE47A58ADF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F612D-D381-44C8-8932-C20785409A79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="2" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -89,9 +89,6 @@
     <t>UNITS</t>
   </si>
   <si>
-    <t>L22 6-7z Mixed Pasta Salads 12 $13.68</t>
-  </si>
-  <si>
     <t>ADD_NEW</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Total_Allowances</t>
   </si>
   <si>
-    <t>Unit_Cost_Net_Allowances</t>
-  </si>
-  <si>
     <t>Non_Promo_SRP</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>DIALOG_BOX</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>DIALOG_MSG</t>
   </si>
   <si>
@@ -182,15 +173,6 @@
     <t>Oct/29/2018</t>
   </si>
   <si>
-    <t>$ BB Per Unit</t>
-  </si>
-  <si>
-    <t>Nov/23/2018</t>
-  </si>
-  <si>
-    <t>Nov/29/2018</t>
-  </si>
-  <si>
     <t>BTN_APPLY_EDLP</t>
   </si>
   <si>
@@ -228,6 +210,45 @@
   </si>
   <si>
     <t>Events;Trade Rate by Month</t>
+  </si>
+  <si>
+    <t>GROUP_PPG</t>
+  </si>
+  <si>
+    <t>ADD_PPG</t>
+  </si>
+  <si>
+    <t>DELETE_PPG</t>
+  </si>
+  <si>
+    <t>.08z FS Crystal Light On the Go $25.21</t>
+  </si>
+  <si>
+    <t>Product Costing</t>
+  </si>
+  <si>
+    <t>Base Planning</t>
+  </si>
+  <si>
+    <t>Inc Planning</t>
+  </si>
+  <si>
+    <t>003 32z Velveeta Loaf 12 $96.12</t>
+  </si>
+  <si>
+    <t>EVENTS</t>
+  </si>
+  <si>
+    <t>BOTTOM_HEADER</t>
+  </si>
+  <si>
+    <t>Unit_Cost_Net_Allow</t>
+  </si>
+  <si>
+    <t>$ Scan per Unit</t>
+  </si>
+  <si>
+    <t>UB5 36z Velveeta Loaf 12 $15.30</t>
   </si>
 </sst>
 </file>
@@ -272,7 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +307,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492717E-1E7A-4A9E-BD57-6FCA78715695}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,13 +755,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -757,39 +781,39 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -809,18 +833,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -831,10 +855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,9 +875,10 @@
     <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -873,25 +898,31 @@
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -904,39 +935,53 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
+      <c r="E2" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,58 +1013,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1027,29 +1072,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="G2" s="3">
+        <v>96.12</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
       <c r="O2" s="3">
         <v>2</v>
       </c>
@@ -1057,51 +1099,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3">
-        <v>4</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1112,57 +1110,98 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
